--- a/Data_processed/industry/end-of-life.xlsx
+++ b/Data_processed/industry/end-of-life.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/end-of-life.xlsx
+++ b/Data_processed/industry/end-of-life.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/end-of-life.xlsx
+++ b/Data_processed/industry/end-of-life.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.063488427094</v>
+        <v>-0.22444096</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.22444096</v>
+        <v>-54.443555</v>
       </c>
       <c r="F2" t="n">
-        <v>-54.443555</v>
+        <v>-6.2580095e-06</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.054177064716</v>
+        <v>-0.2708475066666667</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2708475066666667</v>
+        <v>-38.388138</v>
       </c>
       <c r="F3" t="n">
-        <v>-38.388138</v>
+        <v>-7.5519471e-06</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.084567360818</v>
+        <v>-0.3692624066666667</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3692624066666667</v>
+        <v>-53.477815</v>
       </c>
       <c r="F4" t="n">
-        <v>-53.477815</v>
+        <v>-1.0296016e-05</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.533587219598</v>
+        <v>-3.3892848</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.3892848</v>
+        <v>-50.218445</v>
       </c>
       <c r="F5" t="n">
-        <v>-50.218445</v>
+        <v>-9.4502253e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4966008781478</v>
+        <v>-0.01424052333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01424052333333333</v>
+        <v>-29.696484</v>
       </c>
       <c r="F6" t="n">
-        <v>-29.696484</v>
+        <v>-3.9706357e-07</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.005184029263999999</v>
+        <v>0.1154471333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1154471333333333</v>
+        <v>-38.146704</v>
       </c>
       <c r="F7" t="n">
-        <v>-38.146704</v>
+        <v>3.2189724e-06</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.0008844154409999999</v>
+        <v>0.15848304</v>
       </c>
       <c r="E8" t="n">
-        <v>0.15848304</v>
+        <v>-48.769836</v>
       </c>
       <c r="F8" t="n">
-        <v>-48.769836</v>
+        <v>4.4189278e-06</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0183507571689</v>
+        <v>0.24794688</v>
       </c>
       <c r="E9" t="n">
-        <v>0.24794688</v>
+        <v>-24.626353</v>
       </c>
       <c r="F9" t="n">
-        <v>-24.626353</v>
+        <v>6.913417e-06</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.007085786871500001</v>
+        <v>0.02383965133333334</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02383965133333334</v>
+        <v>-19.797656</v>
       </c>
       <c r="F10" t="n">
-        <v>-19.797656</v>
+        <v>6.6471273e-07</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.006610561915899999</v>
+        <v>0.10531284</v>
       </c>
       <c r="E11" t="n">
-        <v>0.10531284</v>
+        <v>-18.590482</v>
       </c>
       <c r="F11" t="n">
-        <v>-18.590482</v>
+        <v>2.9364015e-06</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.0234287013644</v>
+        <v>0.3191301133333334</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3191301133333334</v>
+        <v>-35.128768</v>
       </c>
       <c r="F12" t="n">
-        <v>-35.128768</v>
+        <v>8.898194300000001e-06</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.006610561915899999</v>
+        <v>0.10531284</v>
       </c>
       <c r="E13" t="n">
-        <v>0.10531284</v>
+        <v>-18.590482</v>
       </c>
       <c r="F13" t="n">
-        <v>-18.590482</v>
+        <v>2.9364015e-06</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.2267765849419</v>
+        <v>-1.4502228</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.4502228</v>
+        <v>-21.4877</v>
       </c>
       <c r="F14" t="n">
-        <v>-21.4877</v>
+        <v>-4.043606e-05</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.1934944544969</v>
+        <v>-1.252242933333333</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.252242933333333</v>
+        <v>-18.554267</v>
       </c>
       <c r="F15" t="n">
-        <v>-18.554267</v>
+        <v>-3.4915856e-05</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.088443458933</v>
+        <v>-0.62734358</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.62734358</v>
+        <v>-9.295241000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>-9.295241000000001</v>
+        <v>-1.7492004e-05</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.1884268073331</v>
+        <v>-1.222097866666667</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.222097866666667</v>
+        <v>-18.107612</v>
       </c>
       <c r="F17" t="n">
-        <v>-18.107612</v>
+        <v>-3.4075332e-05</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.0234287013644</v>
+        <v>0.3191301133333334</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3191301133333334</v>
+        <v>-35.128768</v>
       </c>
       <c r="F18" t="n">
-        <v>-35.128768</v>
+        <v>8.898194300000001e-06</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.0612805789159</v>
+        <v>0.46531284</v>
       </c>
       <c r="E19" t="n">
-        <v>0.46531284</v>
+        <v>-18.590482</v>
       </c>
       <c r="F19" t="n">
-        <v>-18.590482</v>
+        <v>1.2974157e-05</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.2302154791441</v>
+        <v>-1.4746648</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.4746648</v>
+        <v>-21.849852</v>
       </c>
       <c r="F20" t="n">
-        <v>-21.849852</v>
+        <v>-4.1117567e-05</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.1959746026956</v>
+        <v>-1.2709818</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.2709818</v>
+        <v>-18.831917</v>
       </c>
       <c r="F21" t="n">
-        <v>-18.831917</v>
+        <v>-3.5438345e-05</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.0891430770748</v>
+        <v>-0.6354909000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.6354909000000001</v>
+        <v>-9.4159585</v>
       </c>
       <c r="F22" t="n">
-        <v>-9.4159585</v>
+        <v>-1.7719172e-05</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.019893209836</v>
+        <v>0.02831558066666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02831558066666667</v>
+        <v>-45.95712</v>
       </c>
       <c r="F23" t="n">
-        <v>-45.95712</v>
+        <v>7.8951352e-07</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-0.57347023025</v>
+        <v>-3.633704333333334</v>
       </c>
       <c r="E24" t="n">
-        <v>-3.633704333333334</v>
+        <v>-53.839968</v>
       </c>
       <c r="F24" t="n">
-        <v>-53.839968</v>
+        <v>-0.00010131732</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.1883972041884</v>
+        <v>-1.213950533333333</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.213950533333333</v>
+        <v>-17.986895</v>
       </c>
       <c r="F25" t="n">
-        <v>-17.986895</v>
+        <v>-3.3848163e-05</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-0.009603864867</v>
+        <v>0.09697628</v>
       </c>
       <c r="E26" t="n">
-        <v>0.09697628</v>
+        <v>-45.087955</v>
       </c>
       <c r="F26" t="n">
-        <v>-45.087955</v>
+        <v>2.703956e-06</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.3637562437351</v>
+        <v>-2.343169</v>
       </c>
       <c r="E27" t="n">
-        <v>-2.343169</v>
+        <v>-34.718329</v>
       </c>
       <c r="F27" t="n">
-        <v>-34.718329</v>
+        <v>-6.5333769e-05</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.0004455965149000006</v>
+        <v>0.126831</v>
       </c>
       <c r="E28" t="n">
-        <v>0.126831</v>
+        <v>-34.718329</v>
       </c>
       <c r="F28" t="n">
-        <v>-34.718329</v>
+        <v>3.5363848e-06</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.053664515037</v>
+        <v>0.48765692</v>
       </c>
       <c r="E29" t="n">
-        <v>0.48765692</v>
+        <v>-36.335942</v>
       </c>
       <c r="F29" t="n">
-        <v>-36.335942</v>
+        <v>1.3597169e-05</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-0.10287224445</v>
+        <v>-0.49370436</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.49370436</v>
+        <v>-53.839968</v>
       </c>
       <c r="F30" t="n">
-        <v>-53.839968</v>
+        <v>-1.3765788e-05</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.050663405644</v>
+        <v>0.39819248</v>
       </c>
       <c r="E31" t="n">
-        <v>0.39819248</v>
+        <v>-28.030584</v>
       </c>
       <c r="F31" t="n">
-        <v>-28.030584</v>
+        <v>1.1102663e-05</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-0.3407834938648</v>
+        <v>-2.142744933333333</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.142744933333333</v>
+        <v>-31.74868</v>
       </c>
       <c r="F32" t="n">
-        <v>-31.74868</v>
+        <v>-5.9745415e-05</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.2237397110896</v>
+        <v>-1.425780866666667</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.425780866666667</v>
+        <v>-21.125548</v>
       </c>
       <c r="F33" t="n">
-        <v>-21.125548</v>
+        <v>-3.9754554e-05</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.0069921566241</v>
+        <v>0.15502288</v>
       </c>
       <c r="E34" t="n">
-        <v>0.15502288</v>
+        <v>-30.300071</v>
       </c>
       <c r="F34" t="n">
-        <v>-30.300071</v>
+        <v>4.3224493e-06</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.0158603774722</v>
+        <v>0.1745762466666667</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1745762466666667</v>
+        <v>-19.194069</v>
       </c>
       <c r="F35" t="n">
-        <v>-19.194069</v>
+        <v>4.867649e-06</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.078320258844</v>
+        <v>-0.3380905666666666</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.3380905666666666</v>
+        <v>-51.534265</v>
       </c>
       <c r="F36" t="n">
-        <v>-51.534265</v>
+        <v>-9.4268621e-06</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-0.033405790841</v>
+        <v>-0.041874064</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.041874064</v>
+        <v>-50.701315</v>
       </c>
       <c r="F37" t="n">
-        <v>-50.701315</v>
+        <v>-1.16756e-06</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.0457285983214</v>
+        <v>0.3341296133333334</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3341296133333334</v>
+        <v>-8.088066899999999</v>
       </c>
       <c r="F38" t="n">
-        <v>-8.088066899999999</v>
+        <v>9.316420200000001e-06</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-0.0454429048819</v>
+        <v>-0.1801780533333333</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.1801780533333333</v>
+        <v>-28.006441</v>
       </c>
       <c r="F39" t="n">
-        <v>-28.006441</v>
+        <v>-5.0238422e-06</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.0234287013644</v>
+        <v>0.3191301133333334</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3191301133333334</v>
+        <v>-35.128768</v>
       </c>
       <c r="F40" t="n">
-        <v>-35.128768</v>
+        <v>8.898194300000001e-06</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-0.0137137128696</v>
+        <v>-0.01578086</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.01578086</v>
+        <v>-21.125548</v>
       </c>
       <c r="F41" t="n">
-        <v>-21.125548</v>
+        <v>-4.4001225e-07</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.002634183781</v>
+        <v>0.06267880333333334</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06267880333333334</v>
+        <v>-12.554611</v>
       </c>
       <c r="F42" t="n">
-        <v>-12.554611</v>
+        <v>1.7476513e-06</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-0.2071108868093</v>
+        <v>-1.3117184</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.3117184</v>
+        <v>-19.435504</v>
       </c>
       <c r="F43" t="n">
-        <v>-19.435504</v>
+        <v>-3.6574189e-05</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1789,13 +1834,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.3435819643378</v>
+        <v>-2.1753342</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.1753342</v>
+        <v>-32.23155</v>
       </c>
       <c r="F44" t="n">
-        <v>-32.23155</v>
+        <v>-6.065409e-05</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1820,13 +1865,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.3397410698856</v>
+        <v>-2.150892266666667</v>
       </c>
       <c r="E45" t="n">
-        <v>-2.150892266666667</v>
+        <v>-31.869398</v>
       </c>
       <c r="F45" t="n">
-        <v>-31.869398</v>
+        <v>-5.9972584e-05</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-0.3243774822667</v>
+        <v>-2.053124466666667</v>
       </c>
       <c r="E46" t="n">
-        <v>-2.053124466666667</v>
+        <v>-30.420789</v>
       </c>
       <c r="F46" t="n">
-        <v>-30.420789</v>
+        <v>-5.7246557e-05</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,13 +1927,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.00875895481</v>
+        <v>0.07024620000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.07024620000000001</v>
+        <v>-35.853073</v>
       </c>
       <c r="F47" t="n">
-        <v>-35.853073</v>
+        <v>1.9586504e-06</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.549457217126</v>
+        <v>-3.478905266666667</v>
       </c>
       <c r="E48" t="n">
-        <v>-3.478905266666667</v>
+        <v>-51.546337</v>
       </c>
       <c r="F48" t="n">
-        <v>-51.546337</v>
+        <v>-9.700111100000001e-05</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,13 +1989,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-0.0239588166919</v>
+        <v>-0.06017805466666667</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.06017805466666667</v>
+        <v>-28.006441</v>
       </c>
       <c r="F49" t="n">
-        <v>-28.006441</v>
+        <v>-1.6779238e-06</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1975,13 +2020,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.283095221033</v>
+        <v>-1.7924102</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.7924102</v>
+        <v>-26.557832</v>
       </c>
       <c r="F50" t="n">
-        <v>-26.557832</v>
+        <v>-4.9977153e-05</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2006,13 +2051,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-0.014171573763</v>
+        <v>0.04767930266666667</v>
       </c>
       <c r="E51" t="n">
-        <v>0.04767930266666667</v>
+        <v>-39.595313</v>
       </c>
       <c r="F51" t="n">
-        <v>-39.595313</v>
+        <v>1.3294255e-06</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2037,13 +2082,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.005908594460999998</v>
+        <v>0.1784159</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1784159</v>
+        <v>-38.991725</v>
       </c>
       <c r="F52" t="n">
-        <v>-38.991725</v>
+        <v>4.9747087e-06</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2068,13 +2113,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-0.0257326228626</v>
+        <v>-0.04828061066666667</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.04828061066666667</v>
+        <v>-34.645898</v>
       </c>
       <c r="F53" t="n">
-        <v>-34.645898</v>
+        <v>-1.3461915e-06</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2099,13 +2144,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.011462429237</v>
+        <v>0.2176793</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2176793</v>
+        <v>-39.595313</v>
       </c>
       <c r="F54" t="n">
-        <v>-39.595313</v>
+        <v>6.0694765e-06</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2130,13 +2175,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-0.058963878307</v>
+        <v>-0.2230349133333333</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2230349133333333</v>
+        <v>-43.45827</v>
       </c>
       <c r="F55" t="n">
-        <v>-43.45827</v>
+        <v>-6.2188051e-06</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2161,13 +2206,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-0.062011670501</v>
+        <v>-0.2419188266666667</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2419188266666667</v>
+        <v>-44.182574</v>
       </c>
       <c r="F56" t="n">
-        <v>-44.182574</v>
+        <v>-6.7453388e-06</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2192,13 +2237,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.0131850106611</v>
+        <v>-0.01207549866666667</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.01207549866666667</v>
+        <v>-21.366983</v>
       </c>
       <c r="F57" t="n">
-        <v>-21.366983</v>
+        <v>-3.3669694e-07</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2223,13 +2268,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.09094846089200001</v>
+        <v>-0.43600368</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.43600368</v>
+        <v>-42.613248</v>
       </c>
       <c r="F58" t="n">
-        <v>-42.613248</v>
+        <v>-1.2156939e-05</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2254,13 +2299,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-0.0059493790304</v>
+        <v>0.03607182066666667</v>
       </c>
       <c r="E59" t="n">
-        <v>0.03607182066666667</v>
+        <v>-21.246265</v>
       </c>
       <c r="F59" t="n">
-        <v>-21.246265</v>
+        <v>1.0057781e-06</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2285,13 +2330,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.0356848051426</v>
+        <v>0.3587506266666667</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3587506266666667</v>
+        <v>-33.800877</v>
       </c>
       <c r="F60" t="n">
-        <v>-33.800877</v>
+        <v>1.0002919e-05</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2316,13 +2361,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.001915627681099999</v>
+        <v>0.1224336066666667</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1224336066666667</v>
+        <v>-30.782941</v>
       </c>
       <c r="F61" t="n">
-        <v>-30.782941</v>
+        <v>3.4137737e-06</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2347,13 +2392,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.0162168195789</v>
+        <v>0.1352457</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1352457</v>
+        <v>-8.8123714</v>
       </c>
       <c r="F62" t="n">
-        <v>-8.8123714</v>
+        <v>3.7710089e-06</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2378,13 +2423,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-0.2071108868093</v>
+        <v>-1.3117184</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.3117184</v>
+        <v>-19.435504</v>
       </c>
       <c r="F63" t="n">
-        <v>-19.435504</v>
+        <v>-3.6574189e-05</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2409,13 +2454,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.0279952376795</v>
+        <v>0.31936452</v>
       </c>
       <c r="E64" t="n">
-        <v>0.31936452</v>
+        <v>-36.903314</v>
       </c>
       <c r="F64" t="n">
-        <v>-36.903314</v>
+        <v>8.9047302e-06</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2440,13 +2485,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.0472629466211</v>
+        <v>0.5924559866666667</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5924559866666667</v>
+        <v>-34.042311</v>
       </c>
       <c r="F65" t="n">
-        <v>-34.042311</v>
+        <v>1.6519245e-05</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2471,13 +2516,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.08158657170149999</v>
+        <v>0.6364736933333334</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6364736933333334</v>
+        <v>-25.833527</v>
       </c>
       <c r="F66" t="n">
-        <v>-25.833527</v>
+        <v>1.7746575e-05</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2502,13 +2547,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.015485123314</v>
+        <v>0.2410051733333334</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2410051733333334</v>
+        <v>-38.508856</v>
       </c>
       <c r="F67" t="n">
-        <v>-38.508856</v>
+        <v>6.7198638e-06</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2533,13 +2578,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.005684805142599999</v>
+        <v>0.1587506266666667</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1587506266666667</v>
+        <v>-33.800877</v>
       </c>
       <c r="F68" t="n">
-        <v>-33.800877</v>
+        <v>4.4263886e-06</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2564,13 +2609,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.0259562068422</v>
+        <v>0.2646210133333334</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2646210133333334</v>
+        <v>-25.71281</v>
       </c>
       <c r="F69" t="n">
-        <v>-25.71281</v>
+        <v>7.3783359e-06</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2595,13 +2640,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.0318844859815</v>
+        <v>0.3164960733333333</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3164960733333333</v>
+        <v>-29.092897</v>
       </c>
       <c r="F70" t="n">
-        <v>-29.092897</v>
+        <v>8.8247503e-06</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2626,13 +2671,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-0.1536380860253</v>
+        <v>-1.015156</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.015156</v>
+        <v>-15.04139</v>
       </c>
       <c r="F71" t="n">
-        <v>-15.04139</v>
+        <v>-2.8305242e-05</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2657,13 +2702,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.130902140801</v>
+        <v>-0.8799104666666667</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8799104666666667</v>
+        <v>-13.037481</v>
       </c>
       <c r="F72" t="n">
-        <v>-13.037481</v>
+        <v>-2.4534239e-05</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2688,13 +2733,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.056941855507</v>
+        <v>-0.43995524</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.43995524</v>
+        <v>-6.5187405</v>
       </c>
       <c r="F73" t="n">
-        <v>-6.5187405</v>
+        <v>-1.2267119e-05</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2719,13 +2764,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-0.1267932395598</v>
+        <v>-0.8554685333333334</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8554685333333334</v>
+        <v>-12.675329</v>
       </c>
       <c r="F74" t="n">
-        <v>-12.675329</v>
+        <v>-2.3852732e-05</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2750,13 +2795,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.1562551878921</v>
+        <v>-1.034709533333333</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.034709533333333</v>
+        <v>-15.331112</v>
       </c>
       <c r="F75" t="n">
-        <v>-15.331112</v>
+        <v>-2.8850447e-05</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2781,13 +2826,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>-0.1316017609817</v>
+        <v>-0.8880578</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.8880578</v>
+        <v>-13.158198</v>
       </c>
       <c r="F76" t="n">
-        <v>-13.158198</v>
+        <v>-2.4761408e-05</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2812,13 +2857,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-0.0570936186854</v>
+        <v>-0.4448436266666667</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4448436266666667</v>
+        <v>-6.5911709</v>
       </c>
       <c r="F77" t="n">
-        <v>-6.5911709</v>
+        <v>-1.2403421e-05</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2843,13 +2888,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.2144105068242</v>
+        <v>1.428650133333333</v>
       </c>
       <c r="E78" t="n">
-        <v>1.428650133333333</v>
+        <v>-29.949991</v>
       </c>
       <c r="F78" t="n">
-        <v>-29.949991</v>
+        <v>3.9834556e-05</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2874,13 +2919,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.1416807308104</v>
+        <v>0.8942191333333332</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8942191333333332</v>
+        <v>-21.125548</v>
       </c>
       <c r="F79" t="n">
-        <v>-21.125548</v>
+        <v>2.4933202e-05</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2905,13 +2950,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.1884008861755</v>
+        <v>1.254498333333333</v>
       </c>
       <c r="E80" t="n">
-        <v>1.254498333333333</v>
+        <v>-29.418834</v>
       </c>
       <c r="F80" t="n">
-        <v>-29.418834</v>
+        <v>3.4978742e-05</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2936,13 +2981,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.2771915514655</v>
+        <v>-1.8641066</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.8641066</v>
+        <v>-27.620145</v>
       </c>
       <c r="F81" t="n">
-        <v>-27.620145</v>
+        <v>-5.1976239e-05</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2967,13 +3012,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.6482194624698</v>
+        <v>0.8876677333333333</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8876677333333333</v>
+        <v>-16.333066</v>
       </c>
       <c r="F82" t="n">
-        <v>-16.333066</v>
+        <v>2.4750531e-05</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2998,13 +3043,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.1895780607952</v>
+        <v>1.273995933333333</v>
       </c>
       <c r="E83" t="n">
-        <v>1.273995933333333</v>
+        <v>-20.980687</v>
       </c>
       <c r="F83" t="n">
-        <v>-20.980687</v>
+        <v>3.5522387e-05</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3029,13 +3074,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.2498840467014</v>
+        <v>1.639665666666667</v>
       </c>
       <c r="E84" t="n">
-        <v>1.639665666666667</v>
+        <v>-26.82341</v>
       </c>
       <c r="F84" t="n">
-        <v>-26.82341</v>
+        <v>4.571823e-05</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3060,13 +3105,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.1440832473489</v>
+        <v>0.9958707999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9958707999999999</v>
+        <v>-13.544494</v>
       </c>
       <c r="F85" t="n">
-        <v>-13.544494</v>
+        <v>2.776752e-05</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3091,13 +3136,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.1018001918524</v>
+        <v>0.6715515333333334</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6715515333333334</v>
+        <v>-10.200622</v>
       </c>
       <c r="F86" t="n">
-        <v>-10.200622</v>
+        <v>1.8724638e-05</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3122,13 +3167,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.1018001918524</v>
+        <v>0.6715515333333334</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6715515333333334</v>
+        <v>-10.200622</v>
       </c>
       <c r="F87" t="n">
-        <v>-10.200622</v>
+        <v>1.8724638e-05</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3153,13 +3198,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.2028508794415</v>
+        <v>1.386428933333333</v>
       </c>
       <c r="E88" t="n">
-        <v>1.386428933333333</v>
+        <v>-19.314787</v>
       </c>
       <c r="F88" t="n">
-        <v>-19.314787</v>
+        <v>3.8657317e-05</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3184,13 +3229,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.1018001918524</v>
+        <v>0.6715515333333334</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6715515333333334</v>
+        <v>-10.200622</v>
       </c>
       <c r="F89" t="n">
-        <v>-10.200622</v>
+        <v>1.8724638e-05</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3215,13 +3260,13 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-0.1170688264315</v>
+        <v>-0.7976225333333333</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.7976225333333333</v>
+        <v>-11.818235</v>
       </c>
       <c r="F90" t="n">
-        <v>-11.818235</v>
+        <v>-2.2239833e-05</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3246,13 +3291,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.09871571974759999</v>
+        <v>-0.6884484666666667</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.6884484666666667</v>
+        <v>-10.200622</v>
       </c>
       <c r="F91" t="n">
-        <v>-10.200622</v>
+        <v>-1.919577e-05</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3277,13 +3322,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.0410540894694</v>
+        <v>-0.3454463333333334</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.3454463333333334</v>
+        <v>-5.1184184</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.1184184</v>
+        <v>-9.631960400000001e-06</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3308,13 +3353,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.09597645575609999</v>
+        <v>-0.6721538666666667</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.6721538666666667</v>
+        <v>-9.959186799999999</v>
       </c>
       <c r="F93" t="n">
-        <v>-9.959186799999999</v>
+        <v>-1.8741432e-05</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3339,13 +3384,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.2028508794415</v>
+        <v>1.386428933333333</v>
       </c>
       <c r="E94" t="n">
-        <v>1.386428933333333</v>
+        <v>-19.314787</v>
       </c>
       <c r="F94" t="n">
-        <v>-19.314787</v>
+        <v>3.8657317e-05</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3370,13 +3415,13 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.1619487469244</v>
+        <v>1.0641408</v>
       </c>
       <c r="E95" t="n">
-        <v>1.0641408</v>
+        <v>-9.717752000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>-9.717752000000001</v>
+        <v>2.9671069e-05</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3401,13 +3446,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-0.1192750473671</v>
+        <v>-0.8147319333333334</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.8147319333333334</v>
+        <v>-12.071742</v>
       </c>
       <c r="F96" t="n">
-        <v>-12.071742</v>
+        <v>-2.2716888e-05</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3432,13 +3477,13 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.1001001585087</v>
+        <v>-0.7006694666666667</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.7006694666666667</v>
+        <v>-10.381698</v>
       </c>
       <c r="F97" t="n">
-        <v>-10.381698</v>
+        <v>-1.9536523e-05</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3463,13 +3508,13 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-0.0412058537599</v>
+        <v>-0.3503347266666667</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.3503347266666667</v>
+        <v>-5.1908489</v>
       </c>
       <c r="F98" t="n">
-        <v>-5.1908489</v>
+        <v>-9.768261700000001e-06</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3494,7 +3539,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.0176884488</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -3525,13 +3570,13 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.2147252519969</v>
+        <v>1.423951333333333</v>
       </c>
       <c r="E100" t="n">
-        <v>1.423951333333333</v>
+        <v>-25.278227</v>
       </c>
       <c r="F100" t="n">
-        <v>-25.278227</v>
+        <v>3.9703542e-05</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3556,13 +3601,13 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-0.2985845025777</v>
+        <v>-1.9985374</v>
       </c>
       <c r="E101" t="n">
-        <v>-1.9985374</v>
+        <v>-29.611982</v>
       </c>
       <c r="F101" t="n">
-        <v>-29.611982</v>
+        <v>-5.5724526e-05</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3587,13 +3632,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.0965631843047</v>
+        <v>-0.6676728000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.6676728000000001</v>
+        <v>-9.8927923</v>
       </c>
       <c r="F102" t="n">
-        <v>-9.8927923</v>
+        <v>-1.861649e-05</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3618,13 +3663,13 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.2206317730798</v>
+        <v>1.466540666666667</v>
       </c>
       <c r="E103" t="n">
-        <v>1.466540666666667</v>
+        <v>-24.795357</v>
       </c>
       <c r="F103" t="n">
-        <v>-24.795357</v>
+        <v>4.0891044e-05</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3649,13 +3694,13 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.1865254780912</v>
+        <v>-1.288905866666667</v>
       </c>
       <c r="E104" t="n">
-        <v>-1.288905866666667</v>
+        <v>-19.097495</v>
       </c>
       <c r="F104" t="n">
-        <v>-19.097495</v>
+        <v>-3.5938116e-05</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3680,13 +3725,13 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.1776763621088</v>
+        <v>1.181094133333333</v>
       </c>
       <c r="E105" t="n">
-        <v>1.181094133333333</v>
+        <v>-19.097495</v>
       </c>
       <c r="F105" t="n">
-        <v>-19.097495</v>
+        <v>3.2932038e-05</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3711,13 +3756,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.2392500486874</v>
+        <v>1.591618666666667</v>
       </c>
       <c r="E106" t="n">
-        <v>1.591618666666667</v>
+        <v>-19.978732</v>
       </c>
       <c r="F106" t="n">
-        <v>-19.978732</v>
+        <v>4.4378552e-05</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3742,13 +3787,13 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.1720134872223</v>
+        <v>1.1414626</v>
       </c>
       <c r="E107" t="n">
-        <v>1.1414626</v>
+        <v>-29.611982</v>
       </c>
       <c r="F107" t="n">
-        <v>-29.611982</v>
+        <v>3.1827006e-05</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3773,13 +3818,13 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.1937902565494</v>
+        <v>1.249587333333333</v>
       </c>
       <c r="E108" t="n">
-        <v>1.249587333333333</v>
+        <v>-15.415614</v>
       </c>
       <c r="F108" t="n">
-        <v>-15.415614</v>
+        <v>3.4841811e-05</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3804,13 +3849,13 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.1791665708174</v>
+        <v>-1.181361266666667</v>
       </c>
       <c r="E109" t="n">
-        <v>-1.181361266666667</v>
+        <v>-17.504025</v>
       </c>
       <c r="F109" t="n">
-        <v>-17.504025</v>
+        <v>-3.2939487e-05</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3835,13 +3880,13 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.1158809574953</v>
+        <v>-0.7841794666666667</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.7841794666666667</v>
+        <v>-11.619051</v>
       </c>
       <c r="F110" t="n">
-        <v>-11.619051</v>
+        <v>-2.1865004e-05</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3866,13 +3911,13 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.1616239389677</v>
+        <v>1.0748552</v>
       </c>
       <c r="E111" t="n">
-        <v>1.0748552</v>
+        <v>-16.671075</v>
       </c>
       <c r="F111" t="n">
-        <v>-16.671075</v>
+        <v>2.9969816e-05</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3897,13 +3942,13 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.1137892803402</v>
+        <v>0.7571096</v>
       </c>
       <c r="E112" t="n">
-        <v>0.7571096</v>
+        <v>-10.562774</v>
       </c>
       <c r="F112" t="n">
-        <v>-10.562774</v>
+        <v>2.1110224e-05</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3928,13 +3973,13 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.1847866157101</v>
+        <v>1.227009466666667</v>
       </c>
       <c r="E113" t="n">
-        <v>1.227009466666667</v>
+        <v>-28.344449</v>
       </c>
       <c r="F113" t="n">
-        <v>-28.344449</v>
+        <v>3.4212279e-05</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3959,13 +4004,13 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.2254552129789</v>
+        <v>1.497969266666667</v>
       </c>
       <c r="E114" t="n">
-        <v>1.497969266666667</v>
+        <v>-27.885723</v>
       </c>
       <c r="F114" t="n">
-        <v>-27.885723</v>
+        <v>4.1767358e-05</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3990,13 +4035,13 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.0870915735457</v>
+        <v>0.5801786533333334</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5801786533333334</v>
+        <v>-4.4424009</v>
       </c>
       <c r="F115" t="n">
-        <v>-4.4424009</v>
+        <v>1.617692e-05</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4021,13 +4066,13 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.0975469822745</v>
+        <v>0.6704020666666667</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6704020666666667</v>
+        <v>-15.403542</v>
       </c>
       <c r="F116" t="n">
-        <v>-15.403542</v>
+        <v>1.8692589e-05</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4052,13 +4097,13 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.2028508794415</v>
+        <v>1.386428933333333</v>
       </c>
       <c r="E117" t="n">
-        <v>1.386428933333333</v>
+        <v>-19.314787</v>
       </c>
       <c r="F117" t="n">
-        <v>-19.314787</v>
+        <v>3.8657317e-05</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4083,13 +4128,13 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.0945569452637</v>
+        <v>0.6258205266666667</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6258205266666667</v>
+        <v>-11.619051</v>
       </c>
       <c r="F118" t="n">
-        <v>-11.619051</v>
+        <v>1.7449537e-05</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4114,13 +4159,13 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.0667330987396</v>
+        <v>0.44397334</v>
       </c>
       <c r="E119" t="n">
-        <v>0.44397334</v>
+        <v>-6.9050362</v>
       </c>
       <c r="F119" t="n">
-        <v>-6.9050362</v>
+        <v>1.2379155e-05</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4145,13 +4190,13 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.1071423329006</v>
+        <v>-0.7210377333333333</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.7210377333333333</v>
+        <v>-10.683491</v>
       </c>
       <c r="F120" t="n">
-        <v>-10.683491</v>
+        <v>-2.0104446e-05</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4176,13 +4221,13 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-0.1858963439522</v>
+        <v>-1.1895086</v>
       </c>
       <c r="E121" t="n">
-        <v>-1.1895086</v>
+        <v>-17.624743</v>
       </c>
       <c r="F121" t="n">
-        <v>-17.624743</v>
+        <v>-3.3166656e-05</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4207,13 +4252,13 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>-0.1845267068674</v>
+        <v>-1.181361266666667</v>
       </c>
       <c r="E122" t="n">
-        <v>-1.181361266666667</v>
+        <v>-17.504025</v>
       </c>
       <c r="F122" t="n">
-        <v>-17.504025</v>
+        <v>-3.2939487e-05</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4238,13 +4283,13 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-0.1749392675002</v>
+        <v>-1.124330066666667</v>
       </c>
       <c r="E123" t="n">
-        <v>-1.124330066666667</v>
+        <v>-16.659003</v>
       </c>
       <c r="F123" t="n">
-        <v>-16.659003</v>
+        <v>-3.1349305e-05</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4269,13 +4314,13 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.1747721312592</v>
+        <v>1.161987</v>
       </c>
       <c r="E124" t="n">
-        <v>1.161987</v>
+        <v>-19.676939</v>
       </c>
       <c r="F124" t="n">
-        <v>-19.676939</v>
+        <v>3.239928e-05</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4300,13 +4345,13 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.2862133842899</v>
+        <v>-1.912990533333333</v>
       </c>
       <c r="E125" t="n">
-        <v>-1.912990533333333</v>
+        <v>-28.344449</v>
       </c>
       <c r="F125" t="n">
-        <v>-28.344449</v>
+        <v>-5.3339252e-05</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4331,13 +4376,13 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.1188941069494</v>
+        <v>0.7895873333333334</v>
       </c>
       <c r="E126" t="n">
-        <v>0.7895873333333334</v>
+        <v>-15.415614</v>
       </c>
       <c r="F126" t="n">
-        <v>-15.415614</v>
+        <v>2.201579e-05</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4362,13 +4407,13 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.1475013619186</v>
+        <v>-0.9858256000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.9858256000000001</v>
+        <v>-14.606807</v>
       </c>
       <c r="F127" t="n">
-        <v>-14.606807</v>
+        <v>-2.7487434e-05</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4393,13 +4438,13 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.1885343958667</v>
+        <v>1.253482533333333</v>
       </c>
       <c r="E128" t="n">
-        <v>1.253482533333333</v>
+        <v>-21.729135</v>
       </c>
       <c r="F128" t="n">
-        <v>-21.729135</v>
+        <v>3.4950419e-05</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4424,13 +4469,13 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.2050535180264</v>
+        <v>1.363036133333333</v>
       </c>
       <c r="E129" t="n">
-        <v>1.363036133333333</v>
+        <v>-21.439413</v>
       </c>
       <c r="F129" t="n">
-        <v>-21.439413</v>
+        <v>3.8005063e-05</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4455,13 +4500,13 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.1512242070171</v>
+        <v>1.004353</v>
       </c>
       <c r="E130" t="n">
-        <v>1.004353</v>
+        <v>-19.049208</v>
       </c>
       <c r="F130" t="n">
-        <v>-19.049208</v>
+        <v>2.8004027e-05</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4486,13 +4531,13 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.2136205444284</v>
+        <v>1.4202236</v>
       </c>
       <c r="E131" t="n">
-        <v>1.4202236</v>
+        <v>-21.777422</v>
       </c>
       <c r="F131" t="n">
-        <v>-21.777422</v>
+        <v>3.9599603e-05</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4517,13 +4562,13 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.1629169822933</v>
+        <v>1.0968308</v>
       </c>
       <c r="E132" t="n">
-        <v>1.0968308</v>
+        <v>-23.902048</v>
       </c>
       <c r="F132" t="n">
-        <v>-23.902048</v>
+        <v>3.0582553e-05</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4548,13 +4593,13 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.1635672071549</v>
+        <v>1.099944666666667</v>
       </c>
       <c r="E133" t="n">
-        <v>1.099944666666667</v>
+        <v>-24.300416</v>
       </c>
       <c r="F133" t="n">
-        <v>-24.300416</v>
+        <v>3.0669375e-05</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4579,13 +4624,13 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.09583793024880001</v>
+        <v>0.6364511066666667</v>
       </c>
       <c r="E134" t="n">
-        <v>0.6364511066666667</v>
+        <v>-11.757876</v>
       </c>
       <c r="F134" t="n">
-        <v>-11.757876</v>
+        <v>1.7745946e-05</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4610,13 +4655,13 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.1268234934863</v>
+        <v>0.8594200666666667</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8594200666666667</v>
+        <v>-23.419179</v>
       </c>
       <c r="F135" t="n">
-        <v>-23.419179</v>
+        <v>2.3962912e-05</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4641,13 +4686,13 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.1025257131233</v>
+        <v>0.6813395333333333</v>
       </c>
       <c r="E136" t="n">
-        <v>0.6813395333333333</v>
+        <v>-11.685446</v>
       </c>
       <c r="F136" t="n">
-        <v>-11.685446</v>
+        <v>1.8997553e-05</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4672,13 +4717,13 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.2082588106759</v>
+        <v>1.385312866666667</v>
       </c>
       <c r="E137" t="n">
-        <v>1.385312866666667</v>
+        <v>-18.590482</v>
       </c>
       <c r="F137" t="n">
-        <v>-18.590482</v>
+        <v>3.8626198e-05</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -4703,13 +4748,13 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.1590127576521</v>
+        <v>1.056931133333333</v>
       </c>
       <c r="E138" t="n">
-        <v>1.056931133333333</v>
+        <v>-16.936653</v>
       </c>
       <c r="F138" t="n">
-        <v>-16.936653</v>
+        <v>2.9470044e-05</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4734,13 +4779,13 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.0611408451482</v>
+        <v>0.4024777666666667</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4024777666666667</v>
+        <v>-4.8528401</v>
       </c>
       <c r="F139" t="n">
-        <v>-4.8528401</v>
+        <v>1.1222148e-05</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4765,13 +4810,13 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-0.1071423329006</v>
+        <v>-0.7210377333333333</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.7210377333333333</v>
+        <v>-10.683491</v>
       </c>
       <c r="F140" t="n">
-        <v>-10.683491</v>
+        <v>-2.0104446e-05</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -4796,13 +4841,13 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.2164570094035</v>
+        <v>1.440435666666667</v>
       </c>
       <c r="E141" t="n">
-        <v>1.440435666666667</v>
+        <v>-20.292598</v>
       </c>
       <c r="F141" t="n">
-        <v>-20.292598</v>
+        <v>4.0163168e-05</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4827,13 +4872,13 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.2210696219181</v>
+        <v>1.6263508</v>
       </c>
       <c r="E142" t="n">
-        <v>1.6263508</v>
+        <v>-18.723271</v>
       </c>
       <c r="F142" t="n">
-        <v>-18.723271</v>
+        <v>4.5346975e-05</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4858,13 +4903,13 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.2134824167458</v>
+        <v>1.421060533333333</v>
       </c>
       <c r="E143" t="n">
-        <v>1.421060533333333</v>
+        <v>-14.20844</v>
       </c>
       <c r="F143" t="n">
-        <v>-14.20844</v>
+        <v>3.9622938e-05</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4889,13 +4934,13 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.21202773568</v>
+        <v>1.410145466666667</v>
       </c>
       <c r="E144" t="n">
-        <v>1.410145466666667</v>
+        <v>-21.185907</v>
       </c>
       <c r="F144" t="n">
-        <v>-21.185907</v>
+        <v>3.9318598e-05</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4920,13 +4965,13 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.1782588106759</v>
+        <v>1.185312866666667</v>
       </c>
       <c r="E145" t="n">
-        <v>1.185312866666667</v>
+        <v>-18.590482</v>
       </c>
       <c r="F145" t="n">
-        <v>-18.590482</v>
+        <v>3.3049667e-05</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4951,13 +4996,13 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.1574411626933</v>
+        <v>1.046763666666667</v>
       </c>
       <c r="E146" t="n">
-        <v>1.046763666666667</v>
+        <v>-14.123938</v>
       </c>
       <c r="F146" t="n">
-        <v>-14.123938</v>
+        <v>2.9186548e-05</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -4982,13 +5027,13 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.1803529122408</v>
+        <v>1.199665466666667</v>
       </c>
       <c r="E147" t="n">
-        <v>1.199665466666667</v>
+        <v>-16.007129</v>
       </c>
       <c r="F147" t="n">
-        <v>-16.007129</v>
+        <v>3.3449857e-05</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5013,13 +5058,13 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.2915988019099</v>
+        <v>-1.846182533333333</v>
       </c>
       <c r="E148" t="n">
-        <v>-1.846182533333333</v>
+        <v>-27.354567</v>
       </c>
       <c r="F148" t="n">
-        <v>-27.354567</v>
+        <v>-5.1476468e-05</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5044,13 +5089,13 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.1523806645698</v>
+        <v>1.075669933333333</v>
       </c>
       <c r="E149" t="n">
-        <v>1.075669933333333</v>
+        <v>-16.659003</v>
       </c>
       <c r="F149" t="n">
-        <v>-16.659003</v>
+        <v>2.9992532e-05</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5075,13 +5120,13 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.2756851989073</v>
+        <v>-1.707678133333334</v>
       </c>
       <c r="E150" t="n">
-        <v>-1.707678133333334</v>
+        <v>-25.30237</v>
       </c>
       <c r="F150" t="n">
-        <v>-25.30237</v>
+        <v>-4.7614597e-05</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5106,13 +5151,13 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.554216932</v>
+        <v>3.45</v>
       </c>
       <c r="E151" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>9.6195154e-05</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5137,13 +5182,13 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.381366847</v>
+        <v>2.32</v>
       </c>
       <c r="E152" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>6.4687756e-05</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5168,13 +5213,13 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.522180918</v>
+        <v>3.24</v>
       </c>
       <c r="E153" t="n">
-        <v>3.24</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>9.0339797e-05</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5199,7 +5244,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.036180918</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
@@ -5230,13 +5275,13 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.8335310708</v>
+        <v>1.99</v>
       </c>
       <c r="E155" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>5.548648e-05</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5261,13 +5306,13 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.427620612</v>
+        <v>2.69</v>
       </c>
       <c r="E156" t="n">
-        <v>2.69</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>7.500433799999999e-05</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5292,13 +5337,13 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.554216932</v>
+        <v>3.45</v>
       </c>
       <c r="E157" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>9.6195154e-05</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5323,13 +5368,13 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.2977562856</v>
+        <v>1.91</v>
       </c>
       <c r="E158" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>5.3255868e-05</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5354,13 +5399,13 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.4920343434</v>
+        <v>3.19</v>
       </c>
       <c r="E159" t="n">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>8.8945664e-05</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5385,13 +5430,13 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.2175343434</v>
+        <v>1.36</v>
       </c>
       <c r="E160" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>3.7920409e-05</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5416,13 +5461,13 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.8439849380000001</v>
+        <v>5.380000000000001</v>
       </c>
       <c r="E161" t="n">
-        <v>5.380000000000001</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>0.00015000868</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5447,13 +5492,13 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.2175343434</v>
+        <v>1.36</v>
       </c>
       <c r="E162" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>3.7920409e-05</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5478,13 +5523,13 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.2722043604</v>
+        <v>1.72</v>
       </c>
       <c r="E163" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>4.7958164e-05</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5509,13 +5554,13 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.501526813</v>
+        <v>3.13</v>
       </c>
       <c r="E164" t="n">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>8.7272705e-05</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5540,7 +5585,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.037386949</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -5571,7 +5616,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.0156783978</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -5602,13 +5647,13 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.501954785</v>
+        <v>3.14</v>
       </c>
       <c r="E167" t="n">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>8.7551532e-05</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -5633,7 +5678,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.030150765</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -5664,13 +5709,13 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.394352605</v>
+        <v>2.47</v>
       </c>
       <c r="E169" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>6.8870154e-05</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -5695,13 +5740,13 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.465924632</v>
+        <v>2.94</v>
       </c>
       <c r="E170" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>8.1975001e-05</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -5726,13 +5771,13 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.507984938</v>
+        <v>3.14</v>
       </c>
       <c r="E171" t="n">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>8.7551532e-05</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -5757,13 +5802,13 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.368692639</v>
+        <v>2.29</v>
       </c>
       <c r="E172" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>6.3851276e-05</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -5788,7 +5833,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.019430493</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -5819,7 +5864,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.0159464046</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -5850,13 +5895,13 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.350770527</v>
+        <v>2.2</v>
       </c>
       <c r="E175" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>6.134183799999999e-05</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -5881,13 +5926,13 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.2336323332</v>
+        <v>1.47</v>
       </c>
       <c r="E176" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>4.0987501e-05</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -5912,13 +5957,13 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.506376898</v>
+        <v>3.14</v>
       </c>
       <c r="E177" t="n">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>8.7551532e-05</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -5943,13 +5988,13 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.541840884</v>
+        <v>3.38</v>
       </c>
       <c r="E178" t="n">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>9.4243369e-05</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -5974,13 +6019,13 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.1374941394</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>0.8800000000000001</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>2.4536735e-05</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -6005,13 +6050,13 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.2723124012</v>
+        <v>1.71</v>
       </c>
       <c r="E180" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>4.7679337e-05</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6036,13 +6081,13 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.421992469</v>
+        <v>2.69</v>
       </c>
       <c r="E181" t="n">
-        <v>2.69</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>7.500433799999999e-05</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -6067,13 +6112,13 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1.0973957776</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="E182" t="n">
-        <v>0.9100000000000001</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>2.5373215e-05</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -6098,7 +6143,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.014070357</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -6129,7 +6174,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.0159464046</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -6160,7 +6205,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0.0159464046</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -6191,7 +6236,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.0159464046</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -6222,13 +6267,13 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.398022622</v>
+        <v>2.49</v>
       </c>
       <c r="E187" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>6.9427807e-05</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -6253,7 +6298,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.035376898</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -6284,13 +6329,13 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0.36279649</v>
+        <v>2.29</v>
       </c>
       <c r="E189" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>6.3851276e-05</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -6315,7 +6360,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.0182244624</v>
+        <v>0</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -6346,13 +6391,13 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.435068687</v>
+        <v>2.72</v>
       </c>
       <c r="E191" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>7.584081699999999e-05</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -6377,13 +6422,13 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0.44830068</v>
+        <v>2.81</v>
       </c>
       <c r="E192" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>7.8350256e-05</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6408,13 +6453,13 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.367352605</v>
+        <v>2.29</v>
       </c>
       <c r="E193" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>6.3851276e-05</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -6439,13 +6484,13 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.46070269</v>
+        <v>2.89</v>
       </c>
       <c r="E194" t="n">
-        <v>2.89</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>8.058086800000001e-05</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -6470,13 +6515,13 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.4341047</v>
+        <v>2.71</v>
       </c>
       <c r="E195" t="n">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>7.5561991e-05</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -6501,13 +6546,13 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.439274717</v>
+        <v>2.74</v>
       </c>
       <c r="E196" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>7.639847e-05</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -6532,13 +6577,13 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0.72937942</v>
+        <v>1.43</v>
       </c>
       <c r="E197" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>3.9872194e-05</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -6563,13 +6608,13 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.392532673</v>
+        <v>2.44</v>
       </c>
       <c r="E198" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>6.803367399999999e-05</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -6594,13 +6639,13 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0.2351063706</v>
+        <v>1.47</v>
       </c>
       <c r="E199" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>4.0987501e-05</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -6625,13 +6670,13 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.419182588</v>
+        <v>2.64</v>
       </c>
       <c r="E200" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>7.3610205e-05</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -6656,13 +6701,13 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.351172537</v>
+        <v>2.2</v>
       </c>
       <c r="E201" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>6.134183799999999e-05</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -6687,13 +6732,13 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1.31878017</v>
+        <v>0.73</v>
       </c>
       <c r="E202" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>2.0354337e-05</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -6718,7 +6763,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.014070357</v>
+        <v>0</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
@@ -6749,13 +6794,13 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0.446692639</v>
+        <v>2.81</v>
       </c>
       <c r="E204" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>7.8350256e-05</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -6780,13 +6825,13 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0.4335</v>
+        <v>2.89</v>
       </c>
       <c r="E205" t="n">
-        <v>2.89</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>8.058086800000001e-05</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -6811,13 +6856,13 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0.3746884488</v>
+        <v>2.38</v>
       </c>
       <c r="E206" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>6.6360715e-05</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -6842,13 +6887,13 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0.45239867</v>
+        <v>2.84</v>
       </c>
       <c r="E207" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>7.9186736e-05</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -6873,13 +6918,13 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>6.301867587999999</v>
+        <v>2.44</v>
       </c>
       <c r="E208" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>6.803367399999999e-05</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -6904,13 +6949,13 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0.3176884488</v>
+        <v>2</v>
       </c>
       <c r="E209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>5.5765307e-05</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -6935,13 +6980,13 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0.361966507</v>
+        <v>2.28</v>
       </c>
       <c r="E210" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>6.357245e-05</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -6966,7 +7011,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0.018760476</v>
+        <v>0</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
@@ -6997,13 +7042,13 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0.341390289</v>
+        <v>2.2</v>
       </c>
       <c r="E212" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>6.134183799999999e-05</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -7028,7 +7073,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0.011390289</v>
+        <v>0</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
@@ -7059,13 +7104,13 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0.00813550110006</v>
+        <v>0.054002258</v>
       </c>
       <c r="E214" t="n">
-        <v>0.054002258</v>
+        <v>-1.4075651</v>
       </c>
       <c r="F214" t="n">
-        <v>-1.4075651</v>
+        <v>1.5057262e-06</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -7090,13 +7135,13 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0.00813550110006</v>
+        <v>0.054002258</v>
       </c>
       <c r="E215" t="n">
-        <v>0.054002258</v>
+        <v>-1.4075651</v>
       </c>
       <c r="F215" t="n">
-        <v>-1.4075651</v>
+        <v>1.5057262e-06</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -7121,13 +7166,13 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0.01271297032133</v>
+        <v>0.08453417333333334</v>
       </c>
       <c r="E216" t="n">
-        <v>0.08453417333333334</v>
+        <v>-1.2011383</v>
       </c>
       <c r="F216" t="n">
-        <v>-1.2011383</v>
+        <v>2.3570371e-06</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -7152,13 +7197,13 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0.01070131673544</v>
+        <v>0.07102884666666667</v>
       </c>
       <c r="E217" t="n">
-        <v>0.07102884666666667</v>
+        <v>-1.5578583</v>
       </c>
       <c r="F217" t="n">
-        <v>-1.5578583</v>
+        <v>1.9804727e-06</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -7183,13 +7228,13 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0.01282518656108</v>
+        <v>0.08530359333333333</v>
       </c>
       <c r="E218" t="n">
-        <v>0.08530359333333333</v>
+        <v>-1.0623133</v>
       </c>
       <c r="F218" t="n">
-        <v>-1.0623133</v>
+        <v>2.3784905e-06</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -7214,13 +7259,13 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0.01064174856248</v>
+        <v>0.07067780000000001</v>
       </c>
       <c r="E219" t="n">
-        <v>0.07067780000000001</v>
+        <v>-1.5669121</v>
       </c>
       <c r="F219" t="n">
-        <v>-1.5669121</v>
+        <v>1.9706845e-06</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -7245,13 +7290,13 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0.0142373431087</v>
+        <v>0.09466340000000001</v>
       </c>
       <c r="E220" t="n">
-        <v>0.09466340000000001</v>
+        <v>-1.573793</v>
       </c>
       <c r="F220" t="n">
-        <v>-1.573793</v>
+        <v>2.6394668e-06</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -7276,13 +7321,13 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>-0.008384562028100001</v>
+        <v>-0.056053556</v>
       </c>
       <c r="E221" t="n">
-        <v>-0.056053556</v>
+        <v>-0.83053582</v>
       </c>
       <c r="F221" t="n">
-        <v>-0.83053582</v>
+        <v>-1.5629219e-06</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -7307,13 +7352,13 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0.0083840359512</v>
+        <v>0.055668104</v>
       </c>
       <c r="E222" t="n">
-        <v>0.055668104</v>
+        <v>-1.2880548</v>
       </c>
       <c r="F222" t="n">
-        <v>-1.2880548</v>
+        <v>1.5521745e-06</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -7338,13 +7383,13 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0.00888705718923</v>
+        <v>0.059005694</v>
       </c>
       <c r="E223" t="n">
-        <v>0.059005694</v>
+        <v>-1.3146127</v>
       </c>
       <c r="F223" t="n">
-        <v>-1.3146127</v>
+        <v>1.6452353e-06</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -7369,13 +7414,13 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0.01181036380814</v>
+        <v>0.07848744000000001</v>
       </c>
       <c r="E224" t="n">
-        <v>0.07848744000000001</v>
+        <v>-1.4606807</v>
       </c>
       <c r="F224" t="n">
-        <v>-1.4606807</v>
+        <v>2.188438e-06</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -7400,13 +7445,13 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0.00619954268209</v>
+        <v>0.04186349733333333</v>
       </c>
       <c r="E225" t="n">
-        <v>0.04186349733333333</v>
+        <v>-0.83295017</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.83295017</v>
+        <v>1.1672654e-06</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -7462,13 +7507,13 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>-1.4045549223375</v>
+        <v>-3.2094712</v>
       </c>
       <c r="E227" t="n">
-        <v>-3.2094712</v>
+        <v>-47.717885</v>
       </c>
       <c r="F227" t="n">
-        <v>-47.717885</v>
+        <v>-8.9488573e-05</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -7493,13 +7538,13 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>-2.30436616658851</v>
+        <v>-1.342364866666667</v>
       </c>
       <c r="E228" t="n">
-        <v>-1.342364866666667</v>
+        <v>-22.084523</v>
       </c>
       <c r="F228" t="n">
-        <v>-22.084523</v>
+        <v>-3.7428693e-05</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -7524,13 +7569,13 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>-46031.502809846</v>
+        <v>-37631.74000000001</v>
       </c>
       <c r="E229" t="n">
-        <v>-37631.74000000001</v>
+        <v>-66205.007</v>
       </c>
       <c r="F229" t="n">
-        <v>-66205.007</v>
+        <v>-1.0492728</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -7555,13 +7600,13 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>-0.57029473200727</v>
+        <v>-0.3211442133333333</v>
       </c>
       <c r="E230" t="n">
-        <v>-0.3211442133333333</v>
+        <v>-5.4705602</v>
       </c>
       <c r="F230" t="n">
-        <v>-5.4705602</v>
+        <v>-8.9543528e-06</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -7586,13 +7631,13 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>-4.04429303449952</v>
+        <v>-23.386884</v>
       </c>
       <c r="E231" t="n">
-        <v>-23.386884</v>
+        <v>-346.44388</v>
       </c>
       <c r="F231" t="n">
-        <v>-346.44388</v>
+        <v>-0.00065208838</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -7617,13 +7662,13 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>-19.81803702676184</v>
+        <v>-8.285154</v>
       </c>
       <c r="E232" t="n">
-        <v>-8.285154</v>
+        <v>-160.57519</v>
       </c>
       <c r="F232" t="n">
-        <v>-160.57519</v>
+        <v>-0.00023101208</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -7648,13 +7693,13 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>-27014.58959003834</v>
+        <v>-21283.50933333334</v>
       </c>
       <c r="E233" t="n">
-        <v>-21283.50933333334</v>
+        <v>-326862.63</v>
       </c>
       <c r="F233" t="n">
-        <v>-326862.63</v>
+        <v>-0.59344072</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -7679,13 +7724,13 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>-20747.2542689417</v>
+        <v>-28496.95266666667</v>
       </c>
       <c r="E234" t="n">
-        <v>-28496.95266666667</v>
+        <v>-398812.77</v>
       </c>
       <c r="F234" t="n">
-        <v>-398812.77</v>
+        <v>-0.79457065</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -7710,13 +7755,13 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>-17046.8804158506</v>
+        <v>-28932.50866666667</v>
       </c>
       <c r="E235" t="n">
-        <v>-28932.50866666667</v>
+        <v>-401281.79</v>
       </c>
       <c r="F235" t="n">
-        <v>-401281.79</v>
+        <v>-0.80671512</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -7741,13 +7786,13 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>-426.450168069832</v>
+        <v>-195.75582</v>
       </c>
       <c r="E236" t="n">
-        <v>-195.75582</v>
+        <v>-283.4947</v>
       </c>
       <c r="F236" t="n">
-        <v>-283.4947</v>
+        <v>-0.0054581917</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -7772,13 +7817,13 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>-0.2275595886183812</v>
+        <v>-0.9205173999999999</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.9205173999999999</v>
+        <v>-6.8855073</v>
       </c>
       <c r="F237" t="n">
-        <v>-6.8855073</v>
+        <v>-2.5666468e-05</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -7803,13 +7848,13 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>-13.78053901858726</v>
+        <v>-7.919459333333334</v>
       </c>
       <c r="E238" t="n">
-        <v>-7.919459333333334</v>
+        <v>-80.31983</v>
       </c>
       <c r="F238" t="n">
-        <v>-80.31983</v>
+        <v>-0.00022081554</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -7834,13 +7879,13 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>-1.63389798334351</v>
+        <v>-1.9909324</v>
       </c>
       <c r="E239" t="n">
-        <v>-1.9909324</v>
+        <v>-44.412622</v>
       </c>
       <c r="F239" t="n">
-        <v>-44.412622</v>
+        <v>-5.5512477e-05</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -7896,13 +7941,13 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>-0.8415777214510001</v>
+        <v>-0.21265738</v>
       </c>
       <c r="E241" t="n">
-        <v>-0.21265738</v>
+        <v>-51.173482</v>
       </c>
       <c r="F241" t="n">
-        <v>-51.173482</v>
+        <v>-5.9294521e-06</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -7927,13 +7972,13 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>-0.764359893043</v>
+        <v>0.05618058666666666</v>
       </c>
       <c r="E242" t="n">
-        <v>0.05618058666666666</v>
+        <v>-40.15934</v>
       </c>
       <c r="F242" t="n">
-        <v>-40.15934</v>
+        <v>1.5664638e-06</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -7989,13 +8034,13 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>-0.5621557219269999</v>
+        <v>0.3043911</v>
       </c>
       <c r="E244" t="n">
-        <v>0.3043911</v>
+        <v>-36.229459</v>
       </c>
       <c r="F244" t="n">
-        <v>-36.229459</v>
+        <v>8.4872315e-06</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -8020,13 +8065,13 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>-0.872234795621</v>
+        <v>-0.2710239</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.2710239</v>
+        <v>-51.526798</v>
       </c>
       <c r="F245" t="n">
-        <v>-51.526798</v>
+        <v>-7.5568655e-06</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -8051,7 +8096,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>-0.6123</v>
+        <v>0</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
@@ -8082,13 +8127,13 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>-0.6350712945837999</v>
+        <v>0.09055110000000001</v>
       </c>
       <c r="E247" t="n">
-        <v>0.09055110000000001</v>
+        <v>-39.021369</v>
       </c>
       <c r="F247" t="n">
-        <v>-39.021369</v>
+        <v>2.5248049e-06</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -8113,13 +8158,13 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>-0.7815574580189999</v>
+        <v>-0.03519890133333334</v>
       </c>
       <c r="E248" t="n">
-        <v>-0.03519890133333334</v>
+        <v>-47.746087</v>
       </c>
       <c r="F248" t="n">
-        <v>-47.746087</v>
+        <v>-9.8143876e-07</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -8144,13 +8189,13 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>-0.872234795621</v>
+        <v>-0.2710239</v>
       </c>
       <c r="E249" t="n">
-        <v>-0.2710239</v>
+        <v>-51.526798</v>
       </c>
       <c r="F249" t="n">
-        <v>-51.526798</v>
+        <v>-7.5568655e-06</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -8175,13 +8220,13 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>-0.7381245151937001</v>
+        <v>-0.9288288</v>
       </c>
       <c r="E250" t="n">
-        <v>-0.9288288</v>
+        <v>-56.375998</v>
       </c>
       <c r="F250" t="n">
-        <v>-56.375998</v>
+        <v>-2.5898212e-05</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -8268,13 +8313,13 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>-0.519262468339</v>
+        <v>0.3804761</v>
       </c>
       <c r="E253" t="n">
-        <v>0.3804761</v>
+        <v>-34.077362</v>
       </c>
       <c r="F253" t="n">
-        <v>-34.077362</v>
+        <v>1.0608683e-05</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -8299,13 +8344,13 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>-0.2528806330646</v>
+        <v>0.8347410666666666</v>
       </c>
       <c r="E254" t="n">
-        <v>0.8347410666666666</v>
+        <v>-20.524966</v>
       </c>
       <c r="F254" t="n">
-        <v>-20.524966</v>
+        <v>2.3274797e-05</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -8330,13 +8375,13 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>-0.872234795721</v>
+        <v>-0.2710239</v>
       </c>
       <c r="E255" t="n">
-        <v>-0.2710239</v>
+        <v>-51.526798</v>
       </c>
       <c r="F255" t="n">
-        <v>-51.526798</v>
+        <v>-7.5568656e-06</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -8361,13 +8406,13 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>-0.930212821264</v>
+        <v>-0.2353089</v>
       </c>
       <c r="E256" t="n">
-        <v>-0.2353089</v>
+        <v>-54.336287</v>
       </c>
       <c r="F256" t="n">
-        <v>-54.336287</v>
+        <v>-6.5610365e-06</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -8392,13 +8437,13 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>-0.3796797227280001</v>
+        <v>0.9165356000000001</v>
       </c>
       <c r="E257" t="n">
-        <v>0.9165356000000001</v>
+        <v>-17.234036</v>
       </c>
       <c r="F257" t="n">
-        <v>-17.234036</v>
+        <v>2.5555444e-05</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -8423,13 +8468,13 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>-0.3670368587997999</v>
+        <v>0.5104561000000001</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5104561000000001</v>
+        <v>-25.003655</v>
       </c>
       <c r="F258" t="n">
-        <v>-25.003655</v>
+        <v>1.423287e-05</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -8454,13 +8499,13 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>-0.7010749299058</v>
+        <v>0.04190609866666667</v>
       </c>
       <c r="E259" t="n">
-        <v>0.04190609866666667</v>
+        <v>-43.034739</v>
       </c>
       <c r="F259" t="n">
-        <v>-43.034739</v>
+        <v>1.1684532e-06</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -8485,13 +8530,13 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>-0.3442057137512</v>
+        <v>0.1181361</v>
       </c>
       <c r="E260" t="n">
-        <v>0.1181361</v>
+        <v>-19.419835</v>
       </c>
       <c r="F260" t="n">
-        <v>-19.419835</v>
+        <v>3.2939478e-06</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -8609,13 +8654,13 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>-0.709994795621</v>
+        <v>-0.2710239</v>
       </c>
       <c r="E264" t="n">
-        <v>-0.2710239</v>
+        <v>-51.526798</v>
       </c>
       <c r="F264" t="n">
-        <v>-51.526798</v>
+        <v>-7.5568655e-06</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -8640,13 +8685,13 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>-0.764359893033</v>
+        <v>0.05618058666666666</v>
       </c>
       <c r="E265" t="n">
-        <v>0.05618058666666666</v>
+        <v>-40.18334</v>
       </c>
       <c r="F265" t="n">
-        <v>-40.18334</v>
+        <v>1.5664638e-06</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -8671,13 +8716,13 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>-0.7381245152037001</v>
+        <v>-0.9288288</v>
       </c>
       <c r="E266" t="n">
-        <v>-0.9288288</v>
+        <v>-56.955698</v>
       </c>
       <c r="F266" t="n">
-        <v>-56.955698</v>
+        <v>-2.5898212e-05</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -8733,13 +8778,13 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>-0.01121771197749</v>
+        <v>-0.07234009333333334</v>
       </c>
       <c r="E268" t="n">
-        <v>-0.07234009333333334</v>
+        <v>-1.055068</v>
       </c>
       <c r="F268" t="n">
-        <v>-1.055068</v>
+        <v>-2.0170337e-06</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -8764,13 +8809,13 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>-0.03889803395409</v>
+        <v>-0.2369974133333334</v>
       </c>
       <c r="E269" t="n">
-        <v>-0.2369974133333334</v>
+        <v>-3.494767</v>
       </c>
       <c r="F269" t="n">
-        <v>-3.494767</v>
+        <v>-6.6081168e-06</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -8795,13 +8840,13 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>-0.033419494739863</v>
+        <v>-0.20440814</v>
       </c>
       <c r="E270" t="n">
-        <v>-0.20440814</v>
+        <v>-3.0118973</v>
       </c>
       <c r="F270" t="n">
-        <v>-3.0118973</v>
+        <v>-5.6994412e-06</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -8857,13 +8902,13 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>-0.003194048470966</v>
+        <v>-0.01688899666666667</v>
       </c>
       <c r="E272" t="n">
-        <v>-0.01688899666666667</v>
+        <v>-0.24059801</v>
       </c>
       <c r="F272" t="n">
-        <v>-0.24059801</v>
+        <v>-4.7091004e-07</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -8888,7 +8933,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>0.141</v>
+        <v>0</v>
       </c>
       <c r="E273" t="n">
         <v>0</v>
@@ -8919,13 +8964,13 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0.342227460574</v>
+        <v>2.241</v>
       </c>
       <c r="E274" t="n">
-        <v>2.241</v>
+        <v>0</v>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>6.2485026e-05</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -8950,13 +8995,13 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>0.02479954157579</v>
+        <v>0.1303589266666667</v>
       </c>
       <c r="E275" t="n">
-        <v>0.1303589266666667</v>
+        <v>2.2662785</v>
       </c>
       <c r="F275" t="n">
-        <v>2.2662785</v>
+        <v>3.6347528e-06</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -8981,13 +9026,13 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>-0.2577561432485</v>
+        <v>-1.550433</v>
       </c>
       <c r="E276" t="n">
-        <v>-1.550433</v>
+        <v>-22.637724</v>
       </c>
       <c r="F276" t="n">
-        <v>-22.637724</v>
+        <v>-4.3230187e-05</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -9043,13 +9088,13 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0.0262921702122</v>
+        <v>0.08906594666666667</v>
       </c>
       <c r="E278" t="n">
-        <v>0.08906594666666667</v>
+        <v>1.5210664</v>
       </c>
       <c r="F278" t="n">
-        <v>1.5210664</v>
+        <v>2.483395e-06</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -9074,13 +9119,13 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>0.0307843618053</v>
+        <v>0.013184342</v>
       </c>
       <c r="E279" t="n">
-        <v>0.013184342</v>
+        <v>0.23804669</v>
       </c>
       <c r="F279" t="n">
-        <v>0.23804669</v>
+        <v>3.6761444e-07</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -9105,13 +9150,13 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>0.0131460851896</v>
+        <v>0.044532974</v>
       </c>
       <c r="E280" t="n">
-        <v>0.044532974</v>
+        <v>0.76053318</v>
       </c>
       <c r="F280" t="n">
-        <v>0.76053318</v>
+        <v>1.2416975e-06</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -9136,13 +9181,13 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0.0131460851896</v>
+        <v>0.044532974</v>
       </c>
       <c r="E281" t="n">
-        <v>0.044532974</v>
+        <v>0.76053318</v>
       </c>
       <c r="F281" t="n">
-        <v>0.76053318</v>
+        <v>1.2416975e-06</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -9167,13 +9212,13 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0.00876405685273</v>
+        <v>0.02968864933333334</v>
       </c>
       <c r="E282" t="n">
-        <v>0.02968864933333334</v>
+        <v>0.50702212</v>
       </c>
       <c r="F282" t="n">
-        <v>0.50702212</v>
+        <v>8.2779832e-07</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -9198,13 +9243,13 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>0.0262921702122</v>
+        <v>0.08906594666666667</v>
       </c>
       <c r="E283" t="n">
-        <v>0.08906594666666667</v>
+        <v>1.5210664</v>
       </c>
       <c r="F283" t="n">
-        <v>1.5210664</v>
+        <v>2.483395e-06</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -9229,13 +9274,13 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0.0219101415824</v>
+        <v>0.07422162</v>
       </c>
       <c r="E284" t="n">
-        <v>0.07422162</v>
+        <v>1.2675553</v>
       </c>
       <c r="F284" t="n">
-        <v>1.2675553</v>
+        <v>2.0694958e-06</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -9260,13 +9305,13 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0.0262921702122</v>
+        <v>0.08906594666666667</v>
       </c>
       <c r="E285" t="n">
-        <v>0.08906594666666667</v>
+        <v>1.5210664</v>
       </c>
       <c r="F285" t="n">
-        <v>1.5210664</v>
+        <v>2.483395e-06</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -9291,13 +9336,13 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>0.2265</v>
+        <v>1.51</v>
       </c>
       <c r="E286" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="F286" t="n">
-        <v>0</v>
+        <v>4.2102807e-05</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -9322,13 +9367,13 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>-0.33</v>
+        <v>-3.14</v>
       </c>
       <c r="E287" t="n">
-        <v>-3.14</v>
+        <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>-8.7551532e-05</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -9353,13 +9398,13 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>-0.33</v>
+        <v>-3.14</v>
       </c>
       <c r="E288" t="n">
-        <v>-3.14</v>
+        <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>-8.7551532e-05</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -9384,13 +9429,13 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0.07529999999999999</v>
+        <v>-0.438</v>
       </c>
       <c r="E289" t="n">
-        <v>-0.438</v>
+        <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>-1.2212602e-05</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -9415,13 +9460,13 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>-0.1485</v>
+        <v>-1.93</v>
       </c>
       <c r="E290" t="n">
-        <v>-1.93</v>
+        <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>-5.3813521e-05</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -9446,13 +9491,13 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>-0.228</v>
+        <v>-2.46</v>
       </c>
       <c r="E291" t="n">
-        <v>-2.46</v>
+        <v>0</v>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>-6.8591327e-05</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -9508,13 +9553,13 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>0.1335</v>
+        <v>-0.05</v>
       </c>
       <c r="E293" t="n">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>-1.3941327e-06</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -9539,13 +9584,13 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>0.123</v>
+        <v>-0.12</v>
       </c>
       <c r="E294" t="n">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>-3.3459184e-06</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -9555,5 +9600,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>